--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/combined_results.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/combined_results.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,52 +523,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7453</v>
+        <v>8012</v>
       </c>
       <c r="C2" t="n">
-        <v>6898</v>
+        <v>8024</v>
       </c>
       <c r="D2" t="n">
-        <v>6973</v>
+        <v>8034</v>
       </c>
       <c r="E2" t="n">
-        <v>7453</v>
+        <v>8412</v>
       </c>
       <c r="F2" t="n">
-        <v>6897</v>
+        <v>8271</v>
       </c>
       <c r="G2" t="n">
-        <v>6973</v>
+        <v>8034</v>
       </c>
       <c r="H2" t="n">
-        <v>7453</v>
+        <v>8412</v>
       </c>
       <c r="I2" t="n">
-        <v>6897</v>
+        <v>8271</v>
       </c>
       <c r="J2" t="n">
-        <v>6878</v>
+        <v>8012</v>
       </c>
       <c r="K2" t="n">
-        <v>5923</v>
+        <v>6797</v>
       </c>
       <c r="L2" t="n">
-        <v>6973</v>
+        <v>8012</v>
       </c>
       <c r="M2" t="n">
-        <v>7453</v>
+        <v>8012</v>
       </c>
       <c r="N2" t="n">
-        <v>7453</v>
+        <v>8034</v>
       </c>
       <c r="O2" t="n">
-        <v>7453</v>
+        <v>8034</v>
       </c>
       <c r="P2" t="n">
-        <v>7453</v>
+        <v>8034</v>
       </c>
       <c r="Q2" t="n">
-        <v>7453</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="3">
@@ -576,52 +576,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6533</v>
+        <v>8247</v>
       </c>
       <c r="C3" t="n">
-        <v>6305</v>
+        <v>8326</v>
       </c>
       <c r="D3" t="n">
-        <v>7428</v>
+        <v>8350</v>
       </c>
       <c r="E3" t="n">
-        <v>8169</v>
+        <v>8452</v>
       </c>
       <c r="F3" t="n">
-        <v>7428</v>
+        <v>8350</v>
       </c>
       <c r="G3" t="n">
-        <v>7428</v>
+        <v>8350</v>
       </c>
       <c r="H3" t="n">
-        <v>8169</v>
+        <v>8683</v>
       </c>
       <c r="I3" t="n">
-        <v>7428</v>
+        <v>8350</v>
       </c>
       <c r="J3" t="n">
-        <v>7837</v>
+        <v>7318</v>
       </c>
       <c r="K3" t="n">
-        <v>6235</v>
+        <v>6969</v>
       </c>
       <c r="L3" t="n">
-        <v>7428</v>
+        <v>8346</v>
       </c>
       <c r="M3" t="n">
-        <v>5927</v>
+        <v>8346</v>
       </c>
       <c r="N3" t="n">
-        <v>6417</v>
+        <v>8280</v>
       </c>
       <c r="O3" t="n">
-        <v>5927</v>
+        <v>8280</v>
       </c>
       <c r="P3" t="n">
-        <v>7326</v>
+        <v>8346</v>
       </c>
       <c r="Q3" t="n">
-        <v>7428</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="4">
@@ -629,52 +629,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7899</v>
+        <v>6696</v>
       </c>
       <c r="C4" t="n">
-        <v>7140</v>
+        <v>6696</v>
       </c>
       <c r="D4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="E4" t="n">
-        <v>7755</v>
+        <v>7496</v>
       </c>
       <c r="F4" t="n">
-        <v>6769</v>
+        <v>7500</v>
       </c>
       <c r="G4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="H4" t="n">
-        <v>7755</v>
+        <v>7240</v>
       </c>
       <c r="I4" t="n">
-        <v>6769</v>
+        <v>7500</v>
       </c>
       <c r="J4" t="n">
-        <v>7213</v>
+        <v>6837</v>
       </c>
       <c r="K4" t="n">
-        <v>5830</v>
+        <v>7073</v>
       </c>
       <c r="L4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="M4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="N4" t="n">
-        <v>5797</v>
+        <v>6557</v>
       </c>
       <c r="O4" t="n">
-        <v>5797</v>
+        <v>6557</v>
       </c>
       <c r="P4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
       <c r="Q4" t="n">
-        <v>6769</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="5">
@@ -682,52 +682,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7680</v>
+        <v>7773</v>
       </c>
       <c r="C5" t="n">
-        <v>7680</v>
+        <v>8463</v>
       </c>
       <c r="D5" t="n">
-        <v>7753</v>
+        <v>7773</v>
       </c>
       <c r="E5" t="n">
-        <v>8037</v>
+        <v>8092</v>
       </c>
       <c r="F5" t="n">
-        <v>7753</v>
+        <v>8283</v>
       </c>
       <c r="G5" t="n">
-        <v>7753</v>
+        <v>7773</v>
       </c>
       <c r="H5" t="n">
-        <v>8037</v>
+        <v>8092</v>
       </c>
       <c r="I5" t="n">
-        <v>7753</v>
+        <v>8283</v>
       </c>
       <c r="J5" t="n">
-        <v>7680</v>
+        <v>8463</v>
       </c>
       <c r="K5" t="n">
-        <v>7260</v>
+        <v>8032</v>
       </c>
       <c r="L5" t="n">
-        <v>7680</v>
+        <v>8297</v>
       </c>
       <c r="M5" t="n">
-        <v>7680</v>
+        <v>7726</v>
       </c>
       <c r="N5" t="n">
-        <v>7805</v>
+        <v>7648</v>
       </c>
       <c r="O5" t="n">
-        <v>7805</v>
+        <v>7648</v>
       </c>
       <c r="P5" t="n">
-        <v>7805</v>
+        <v>7559</v>
       </c>
       <c r="Q5" t="n">
-        <v>7680</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="6">
@@ -735,52 +735,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5585</v>
+        <v>9046</v>
       </c>
       <c r="C6" t="n">
-        <v>6223</v>
+        <v>9018</v>
       </c>
       <c r="D6" t="n">
-        <v>6075</v>
+        <v>9088</v>
       </c>
       <c r="E6" t="n">
-        <v>6196</v>
+        <v>8929</v>
       </c>
       <c r="F6" t="n">
-        <v>5658</v>
+        <v>9088</v>
       </c>
       <c r="G6" t="n">
-        <v>6075</v>
+        <v>9088</v>
       </c>
       <c r="H6" t="n">
-        <v>6196</v>
+        <v>8929</v>
       </c>
       <c r="I6" t="n">
-        <v>5658</v>
+        <v>9088</v>
       </c>
       <c r="J6" t="n">
-        <v>6037</v>
+        <v>8683</v>
       </c>
       <c r="K6" t="n">
-        <v>4276</v>
+        <v>8463</v>
       </c>
       <c r="L6" t="n">
-        <v>6075</v>
+        <v>9018</v>
       </c>
       <c r="M6" t="n">
-        <v>4712</v>
+        <v>9046</v>
       </c>
       <c r="N6" t="n">
-        <v>5541</v>
+        <v>8333</v>
       </c>
       <c r="O6" t="n">
-        <v>5541</v>
+        <v>8333</v>
       </c>
       <c r="P6" t="n">
-        <v>6075</v>
+        <v>8976</v>
       </c>
       <c r="Q6" t="n">
-        <v>6075</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="7">
@@ -788,52 +788,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6585</v>
+        <v>8379</v>
       </c>
       <c r="C7" t="n">
-        <v>6220</v>
+        <v>8227</v>
       </c>
       <c r="D7" t="n">
-        <v>6304</v>
+        <v>7884</v>
       </c>
       <c r="E7" t="n">
-        <v>6889</v>
+        <v>9580</v>
       </c>
       <c r="F7" t="n">
-        <v>6585</v>
+        <v>7884</v>
       </c>
       <c r="G7" t="n">
-        <v>6304</v>
+        <v>7884</v>
       </c>
       <c r="H7" t="n">
-        <v>6889</v>
+        <v>9580</v>
       </c>
       <c r="I7" t="n">
-        <v>6585</v>
+        <v>7884</v>
       </c>
       <c r="J7" t="n">
-        <v>4474</v>
+        <v>8379</v>
       </c>
       <c r="K7" t="n">
-        <v>6181</v>
+        <v>7899</v>
       </c>
       <c r="L7" t="n">
-        <v>6304</v>
+        <v>7884</v>
       </c>
       <c r="M7" t="n">
-        <v>6304</v>
+        <v>7757</v>
       </c>
       <c r="N7" t="n">
-        <v>6304</v>
+        <v>8057</v>
       </c>
       <c r="O7" t="n">
-        <v>6304</v>
+        <v>7757</v>
       </c>
       <c r="P7" t="n">
-        <v>6304</v>
+        <v>7757</v>
       </c>
       <c r="Q7" t="n">
-        <v>6304</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="8">
@@ -841,52 +841,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6432</v>
+        <v>7873</v>
       </c>
       <c r="C8" t="n">
-        <v>7814</v>
+        <v>6948</v>
       </c>
       <c r="D8" t="n">
-        <v>7814</v>
+        <v>7952</v>
       </c>
       <c r="E8" t="n">
-        <v>8520</v>
+        <v>8233</v>
       </c>
       <c r="F8" t="n">
-        <v>7745</v>
+        <v>7187</v>
       </c>
       <c r="G8" t="n">
-        <v>7814</v>
+        <v>7952</v>
       </c>
       <c r="H8" t="n">
-        <v>8520</v>
+        <v>8233</v>
       </c>
       <c r="I8" t="n">
-        <v>7745</v>
+        <v>7187</v>
       </c>
       <c r="J8" t="n">
-        <v>7532</v>
+        <v>7952</v>
       </c>
       <c r="K8" t="n">
-        <v>7255</v>
+        <v>7505</v>
       </c>
       <c r="L8" t="n">
-        <v>7814</v>
+        <v>7952</v>
       </c>
       <c r="M8" t="n">
-        <v>6432</v>
+        <v>7873</v>
       </c>
       <c r="N8" t="n">
-        <v>8276</v>
+        <v>7799</v>
       </c>
       <c r="O8" t="n">
-        <v>7757</v>
+        <v>7210</v>
       </c>
       <c r="P8" t="n">
-        <v>7814</v>
+        <v>7952</v>
       </c>
       <c r="Q8" t="n">
-        <v>7814</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="9">
@@ -894,52 +894,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6337</v>
+        <v>8433</v>
       </c>
       <c r="C9" t="n">
-        <v>6303</v>
+        <v>9015</v>
       </c>
       <c r="D9" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="E9" t="n">
-        <v>7467</v>
+        <v>9168</v>
       </c>
       <c r="F9" t="n">
-        <v>6930</v>
+        <v>8957</v>
       </c>
       <c r="G9" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="H9" t="n">
-        <v>7467</v>
+        <v>9168</v>
       </c>
       <c r="I9" t="n">
-        <v>6930</v>
+        <v>8957</v>
       </c>
       <c r="J9" t="n">
-        <v>6907</v>
+        <v>8433</v>
       </c>
       <c r="K9" t="n">
-        <v>6942</v>
+        <v>8015</v>
       </c>
       <c r="L9" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="M9" t="n">
-        <v>6978</v>
+        <v>8433</v>
       </c>
       <c r="N9" t="n">
-        <v>6460</v>
+        <v>8074</v>
       </c>
       <c r="O9" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="P9" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="Q9" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
     </row>
     <row r="10">
@@ -947,52 +947,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5979</v>
+        <v>7963</v>
       </c>
       <c r="C10" t="n">
-        <v>6161</v>
+        <v>9227</v>
       </c>
       <c r="D10" t="n">
-        <v>6970</v>
+        <v>7981</v>
       </c>
       <c r="E10" t="n">
-        <v>7146</v>
+        <v>8967</v>
       </c>
       <c r="F10" t="n">
-        <v>6970</v>
+        <v>7891</v>
       </c>
       <c r="G10" t="n">
-        <v>6970</v>
+        <v>7981</v>
       </c>
       <c r="H10" t="n">
-        <v>7146</v>
+        <v>8967</v>
       </c>
       <c r="I10" t="n">
-        <v>6970</v>
+        <v>7891</v>
       </c>
       <c r="J10" t="n">
-        <v>4648</v>
+        <v>7600</v>
       </c>
       <c r="K10" t="n">
-        <v>5482</v>
+        <v>7520</v>
       </c>
       <c r="L10" t="n">
-        <v>6970</v>
+        <v>7981</v>
       </c>
       <c r="M10" t="n">
-        <v>6718</v>
+        <v>8405</v>
       </c>
       <c r="N10" t="n">
-        <v>6970</v>
+        <v>8405</v>
       </c>
       <c r="O10" t="n">
-        <v>6970</v>
+        <v>8405</v>
       </c>
       <c r="P10" t="n">
-        <v>6970</v>
+        <v>7963</v>
       </c>
       <c r="Q10" t="n">
-        <v>6970</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="11">
@@ -1000,99 +1000,53 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7408</v>
+        <v>6544</v>
       </c>
       <c r="C11" t="n">
-        <v>7408</v>
+        <v>6690</v>
       </c>
       <c r="D11" t="n">
-        <v>7782</v>
+        <v>6690</v>
       </c>
       <c r="E11" t="n">
-        <v>7782</v>
+        <v>7430</v>
       </c>
       <c r="F11" t="n">
-        <v>7782</v>
+        <v>6690</v>
       </c>
       <c r="G11" t="n">
-        <v>7782</v>
+        <v>6690</v>
       </c>
       <c r="H11" t="n">
-        <v>7782</v>
+        <v>7430</v>
       </c>
       <c r="I11" t="n">
-        <v>7782</v>
+        <v>6690</v>
       </c>
       <c r="J11" t="n">
-        <v>7782</v>
+        <v>6885</v>
       </c>
       <c r="K11" t="n">
-        <v>5749</v>
+        <v>6008</v>
       </c>
       <c r="L11" t="n">
-        <v>7782</v>
+        <v>6690</v>
       </c>
       <c r="M11" t="n">
-        <v>7408</v>
+        <v>6592</v>
       </c>
       <c r="N11" t="n">
-        <v>6625</v>
+        <v>6426</v>
       </c>
       <c r="O11" t="n">
-        <v>6625</v>
+        <v>6474</v>
       </c>
       <c r="P11" t="n">
-        <v>7782</v>
+        <v>6690</v>
       </c>
       <c r="Q11" t="n">
-        <v>7408</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>stdev</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+        <v>7207</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1105,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,52 +1154,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="C2" t="n">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="D2" t="n">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="E2" t="n">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="F2" t="n">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="G2" t="n">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="H2" t="n">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="I2" t="n">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="M2" t="n">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="N2" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="O2" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P2" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q2" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3">
@@ -1253,52 +1207,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="C3" t="n">
+        <v>360</v>
+      </c>
+      <c r="D3" t="n">
+        <v>437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>383</v>
+      </c>
+      <c r="F3" t="n">
+        <v>437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>437</v>
+      </c>
+      <c r="H3" t="n">
+        <v>459</v>
+      </c>
+      <c r="I3" t="n">
+        <v>437</v>
+      </c>
+      <c r="J3" t="n">
         <v>268</v>
       </c>
-      <c r="D3" t="n">
-        <v>352</v>
-      </c>
-      <c r="E3" t="n">
-        <v>344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>352</v>
-      </c>
-      <c r="G3" t="n">
-        <v>352</v>
-      </c>
-      <c r="H3" t="n">
-        <v>344</v>
-      </c>
-      <c r="I3" t="n">
-        <v>352</v>
-      </c>
-      <c r="J3" t="n">
-        <v>364</v>
-      </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="L3" t="n">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="M3" t="n">
-        <v>238</v>
+        <v>411</v>
       </c>
       <c r="N3" t="n">
-        <v>282</v>
+        <v>415</v>
       </c>
       <c r="O3" t="n">
-        <v>238</v>
+        <v>415</v>
       </c>
       <c r="P3" t="n">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="Q3" t="n">
-        <v>352</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4">
@@ -1306,52 +1260,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E4" t="n">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F4" t="n">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="G4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="H4" t="n">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="I4" t="n">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="J4" t="n">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="L4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="M4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="N4" t="n">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="O4" t="n">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="P4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="Q4" t="n">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
@@ -1359,52 +1313,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>455</v>
       </c>
       <c r="C5" t="n">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="D5" t="n">
-        <v>191</v>
+        <v>455</v>
       </c>
       <c r="E5" t="n">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="F5" t="n">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="G5" t="n">
-        <v>191</v>
+        <v>455</v>
       </c>
       <c r="H5" t="n">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="I5" t="n">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="J5" t="n">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>439</v>
       </c>
       <c r="L5" t="n">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="M5" t="n">
-        <v>196</v>
+        <v>417</v>
       </c>
       <c r="N5" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="O5" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="P5" t="n">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="Q5" t="n">
-        <v>196</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -1412,52 +1366,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>201</v>
+        <v>435</v>
       </c>
       <c r="C6" t="n">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="D6" t="n">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="E6" t="n">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F6" t="n">
-        <v>264</v>
+        <v>444</v>
       </c>
       <c r="G6" t="n">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="H6" t="n">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="I6" t="n">
-        <v>264</v>
+        <v>444</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="L6" t="n">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="M6" t="n">
-        <v>157</v>
+        <v>435</v>
       </c>
       <c r="N6" t="n">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="O6" t="n">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="P6" t="n">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="Q6" t="n">
-        <v>227</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
@@ -1465,52 +1419,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="C7" t="n">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D7" t="n">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="E7" t="n">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="F7" t="n">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="G7" t="n">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="H7" t="n">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="I7" t="n">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="J7" t="n">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="L7" t="n">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="M7" t="n">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="N7" t="n">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="O7" t="n">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="P7" t="n">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="Q7" t="n">
-        <v>359</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
@@ -1518,52 +1472,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="C8" t="n">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="D8" t="n">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="E8" t="n">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="F8" t="n">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G8" t="n">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="H8" t="n">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="I8" t="n">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J8" t="n">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="K8" t="n">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L8" t="n">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="M8" t="n">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="N8" t="n">
-        <v>441</v>
+        <v>327</v>
       </c>
       <c r="O8" t="n">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="P8" t="n">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="Q8" t="n">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
@@ -1571,52 +1525,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>266</v>
+        <v>419</v>
       </c>
       <c r="C9" t="n">
-        <v>295</v>
+        <v>490</v>
       </c>
       <c r="D9" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="E9" t="n">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="F9" t="n">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="G9" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="H9" t="n">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="I9" t="n">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>419</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>441</v>
       </c>
       <c r="L9" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="M9" t="n">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="N9" t="n">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="O9" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="P9" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="Q9" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10">
@@ -1624,52 +1578,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="C10" t="n">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="D10" t="n">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="E10" t="n">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="F10" t="n">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G10" t="n">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="H10" t="n">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="I10" t="n">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J10" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="K10" t="n">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="L10" t="n">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="M10" t="n">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="N10" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="O10" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="P10" t="n">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="Q10" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11">
@@ -1677,99 +1631,53 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C11" t="n">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D11" t="n">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="E11" t="n">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="F11" t="n">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="G11" t="n">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="H11" t="n">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="I11" t="n">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="J11" t="n">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="K11" t="n">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M11" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="N11" t="n">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="O11" t="n">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="P11" t="n">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="Q11" t="n">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>stdev</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1782,7 +1690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1877,52 +1785,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="C2" t="n">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="D2" t="n">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="E2" t="n">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="F2" t="n">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="G2" t="n">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="H2" t="n">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="I2" t="n">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="J2" t="n">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="K2" t="n">
-        <v>512</v>
+        <v>647</v>
       </c>
       <c r="L2" t="n">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="M2" t="n">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="N2" t="n">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="O2" t="n">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="P2" t="n">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="Q2" t="n">
-        <v>622</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3">
@@ -1930,52 +1838,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>588</v>
+        <v>738</v>
       </c>
       <c r="C3" t="n">
-        <v>537</v>
+        <v>703</v>
       </c>
       <c r="D3" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="E3" t="n">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="F3" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="G3" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="H3" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I3" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="J3" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K3" t="n">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="L3" t="n">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="M3" t="n">
-        <v>545</v>
+        <v>677</v>
       </c>
       <c r="N3" t="n">
-        <v>540</v>
+        <v>651</v>
       </c>
       <c r="O3" t="n">
-        <v>545</v>
+        <v>651</v>
       </c>
       <c r="P3" t="n">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="Q3" t="n">
-        <v>661</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4">
@@ -1983,52 +1891,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>656</v>
+        <v>556</v>
       </c>
       <c r="C4" t="n">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="E4" t="n">
-        <v>647</v>
+        <v>595</v>
       </c>
       <c r="F4" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="H4" t="n">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="I4" t="n">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J4" t="n">
-        <v>644</v>
+        <v>561</v>
       </c>
       <c r="K4" t="n">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="L4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="M4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="N4" t="n">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="O4" t="n">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="P4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="Q4" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
@@ -2036,52 +1944,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671</v>
+        <v>626</v>
       </c>
       <c r="C5" t="n">
-        <v>671</v>
+        <v>759</v>
       </c>
       <c r="D5" t="n">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="E5" t="n">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="F5" t="n">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="G5" t="n">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="H5" t="n">
-        <v>677</v>
+        <v>698</v>
       </c>
       <c r="I5" t="n">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="J5" t="n">
-        <v>671</v>
+        <v>759</v>
       </c>
       <c r="K5" t="n">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="L5" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M5" t="n">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="N5" t="n">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="O5" t="n">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="P5" t="n">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="Q5" t="n">
-        <v>671</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6">
@@ -2089,52 +1997,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>536</v>
+        <v>757</v>
       </c>
       <c r="C6" t="n">
-        <v>554</v>
+        <v>727</v>
       </c>
       <c r="D6" t="n">
-        <v>539</v>
+        <v>778</v>
       </c>
       <c r="E6" t="n">
-        <v>520</v>
+        <v>712</v>
       </c>
       <c r="F6" t="n">
-        <v>484</v>
+        <v>778</v>
       </c>
       <c r="G6" t="n">
-        <v>539</v>
+        <v>778</v>
       </c>
       <c r="H6" t="n">
-        <v>520</v>
+        <v>712</v>
       </c>
       <c r="I6" t="n">
-        <v>484</v>
+        <v>778</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>729</v>
       </c>
       <c r="K6" t="n">
-        <v>361</v>
+        <v>690</v>
       </c>
       <c r="L6" t="n">
-        <v>539</v>
+        <v>727</v>
       </c>
       <c r="M6" t="n">
-        <v>434</v>
+        <v>757</v>
       </c>
       <c r="N6" t="n">
-        <v>498</v>
+        <v>729</v>
       </c>
       <c r="O6" t="n">
-        <v>498</v>
+        <v>729</v>
       </c>
       <c r="P6" t="n">
-        <v>539</v>
+        <v>706</v>
       </c>
       <c r="Q6" t="n">
-        <v>539</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7">
@@ -2142,52 +2050,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>538</v>
+        <v>691</v>
       </c>
       <c r="C7" t="n">
-        <v>533</v>
+        <v>714</v>
       </c>
       <c r="D7" t="n">
-        <v>481</v>
+        <v>667</v>
       </c>
       <c r="E7" t="n">
-        <v>580</v>
+        <v>783</v>
       </c>
       <c r="F7" t="n">
-        <v>538</v>
+        <v>667</v>
       </c>
       <c r="G7" t="n">
-        <v>481</v>
+        <v>667</v>
       </c>
       <c r="H7" t="n">
-        <v>580</v>
+        <v>783</v>
       </c>
       <c r="I7" t="n">
-        <v>538</v>
+        <v>667</v>
       </c>
       <c r="J7" t="n">
-        <v>373</v>
+        <v>691</v>
       </c>
       <c r="K7" t="n">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="L7" t="n">
-        <v>481</v>
+        <v>667</v>
       </c>
       <c r="M7" t="n">
-        <v>481</v>
+        <v>612</v>
       </c>
       <c r="N7" t="n">
-        <v>481</v>
+        <v>676</v>
       </c>
       <c r="O7" t="n">
-        <v>481</v>
+        <v>612</v>
       </c>
       <c r="P7" t="n">
-        <v>481</v>
+        <v>612</v>
       </c>
       <c r="Q7" t="n">
-        <v>481</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8">
@@ -2195,52 +2103,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>553</v>
+        <v>684</v>
       </c>
       <c r="C8" t="n">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="D8" t="n">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="E8" t="n">
-        <v>704</v>
+        <v>776</v>
       </c>
       <c r="F8" t="n">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="G8" t="n">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="H8" t="n">
-        <v>704</v>
+        <v>776</v>
       </c>
       <c r="I8" t="n">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="J8" t="n">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="K8" t="n">
-        <v>712</v>
+        <v>650</v>
       </c>
       <c r="L8" t="n">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="M8" t="n">
-        <v>553</v>
+        <v>684</v>
       </c>
       <c r="N8" t="n">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="O8" t="n">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="P8" t="n">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="Q8" t="n">
-        <v>639</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9">
@@ -2248,52 +2156,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>532</v>
+        <v>717</v>
       </c>
       <c r="C9" t="n">
-        <v>568</v>
+        <v>772</v>
       </c>
       <c r="D9" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
       <c r="E9" t="n">
-        <v>624</v>
+        <v>825</v>
       </c>
       <c r="F9" t="n">
-        <v>594</v>
+        <v>736</v>
       </c>
       <c r="G9" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
       <c r="H9" t="n">
-        <v>624</v>
+        <v>825</v>
       </c>
       <c r="I9" t="n">
-        <v>594</v>
+        <v>736</v>
       </c>
       <c r="J9" t="n">
-        <v>583</v>
+        <v>717</v>
       </c>
       <c r="K9" t="n">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="L9" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
       <c r="M9" t="n">
-        <v>590</v>
+        <v>717</v>
       </c>
       <c r="N9" t="n">
-        <v>519</v>
+        <v>663</v>
       </c>
       <c r="O9" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
       <c r="P9" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
       <c r="Q9" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10">
@@ -2301,52 +2209,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481</v>
+        <v>664</v>
       </c>
       <c r="C10" t="n">
-        <v>491</v>
+        <v>738</v>
       </c>
       <c r="D10" t="n">
-        <v>532</v>
+        <v>649</v>
       </c>
       <c r="E10" t="n">
-        <v>540</v>
+        <v>730</v>
       </c>
       <c r="F10" t="n">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="G10" t="n">
-        <v>532</v>
+        <v>649</v>
       </c>
       <c r="H10" t="n">
-        <v>540</v>
+        <v>730</v>
       </c>
       <c r="I10" t="n">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="J10" t="n">
-        <v>388</v>
+        <v>603</v>
       </c>
       <c r="K10" t="n">
-        <v>472</v>
+        <v>636</v>
       </c>
       <c r="L10" t="n">
-        <v>532</v>
+        <v>649</v>
       </c>
       <c r="M10" t="n">
-        <v>497</v>
+        <v>688</v>
       </c>
       <c r="N10" t="n">
-        <v>532</v>
+        <v>688</v>
       </c>
       <c r="O10" t="n">
-        <v>532</v>
+        <v>688</v>
       </c>
       <c r="P10" t="n">
-        <v>532</v>
+        <v>664</v>
       </c>
       <c r="Q10" t="n">
-        <v>532</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11">
@@ -2354,99 +2262,53 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657</v>
+        <v>534</v>
       </c>
       <c r="C11" t="n">
-        <v>657</v>
+        <v>513</v>
       </c>
       <c r="D11" t="n">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="E11" t="n">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="F11" t="n">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="G11" t="n">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="H11" t="n">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="I11" t="n">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="J11" t="n">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="K11" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L11" t="n">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="M11" t="n">
-        <v>657</v>
+        <v>523</v>
       </c>
       <c r="N11" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="O11" t="n">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="P11" t="n">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="Q11" t="n">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>stdev</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+        <v>608</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
